--- a/Aahna_Intentional_binding_data.xlsx
+++ b/Aahna_Intentional_binding_data.xlsx
@@ -3273,6 +3273,1177 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> and Unexpected </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$J$5:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>short</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>319.30693069306932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.05141388174809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.24691358024694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9299-498B-BAF7-D0BFED931EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unexp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$J$5:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>short</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$L$5:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>309.24855491329481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.44334975369458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325.47945205479454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9299-498B-BAF7-D0BFED931EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="173567488"/>
+        <c:axId val="184167200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="173567488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184167200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184167200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173567488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -39937,7 +41108,7 @@
   <dimension ref="A1:N407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45690,5 +46861,6 @@
   <autoFilter ref="A1:D407"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>